--- a/export_excel_parts/Leave-application-report.xlsx
+++ b/export_excel_parts/Leave-application-report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Xampp\htdocs\hrsystem2\export_excel_parts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDB687F-C265-4B56-BBC3-4BB4F1DDE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02848D6-B06D-4226-A08F-EA893C14BF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -889,76 +889,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -970,53 +901,122 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,7 +1420,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>43143</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1487,7 +1487,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>43143</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1554,7 +1554,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -1621,7 +1621,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>43143</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1688,7 +1688,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>43143</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -1755,7 +1755,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>43143</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -1822,7 +1822,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1889,7 +1889,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1956,7 +1956,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2023,7 +2023,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>29</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2090,7 +2090,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>43143</xdr:colOff>
+          <xdr:colOff>38100</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2157,7 +2157,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2224,7 +2224,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>52668</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2291,7 +2291,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2358,7 +2358,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2425,7 +2425,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2492,7 +2492,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>754155</xdr:colOff>
+          <xdr:colOff>762000</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -2559,7 +2559,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>754155</xdr:colOff>
+          <xdr:colOff>762000</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2626,7 +2626,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>35</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2693,7 +2693,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>39</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2760,7 +2760,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>41</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2827,7 +2827,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>45</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2894,7 +2894,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>47</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2961,7 +2961,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>754155</xdr:colOff>
+          <xdr:colOff>762000</xdr:colOff>
           <xdr:row>53</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
@@ -3028,7 +3028,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>763680</xdr:colOff>
+          <xdr:colOff>771525</xdr:colOff>
           <xdr:row>55</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3424,10 +3424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:E48"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3447,83 +3450,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
       <c r="J1" s="50"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:11" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="87"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
@@ -3532,17 +3535,17 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="76"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="77"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="94"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="58"/>
     </row>
     <row r="7" spans="1:11" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
@@ -3559,18 +3562,18 @@
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
@@ -3677,7 +3680,7 @@
       <c r="J15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K15" s="79"/>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
@@ -3737,7 +3740,7 @@
       <c r="J19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="K19" s="79"/>
+      <c r="K19" s="56"/>
     </row>
     <row r="20" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
@@ -3767,7 +3770,7 @@
       <c r="J21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="K21" s="79"/>
+      <c r="K21" s="56"/>
     </row>
     <row r="22" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
@@ -3795,7 +3798,7 @@
       <c r="H23" s="8"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="80"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
@@ -3854,8 +3857,8 @@
       <c r="I27" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="66"/>
-      <c r="K27" s="81"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="66"/>
     </row>
     <row r="28" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
@@ -3882,8 +3885,8 @@
       <c r="G29" s="21"/>
       <c r="H29" s="12"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="91"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
@@ -3902,12 +3905,12 @@
       <c r="A31" s="9"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="72"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
       <c r="H31" s="12"/>
       <c r="I31" s="22" t="s">
         <v>25</v>
@@ -3940,10 +3943,10 @@
       <c r="G33" s="21"/>
       <c r="H33" s="12"/>
       <c r="I33" s="31"/>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="89"/>
+      <c r="K33" s="68"/>
     </row>
     <row r="34" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
@@ -3970,10 +3973,10 @@
       <c r="G35" s="13"/>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="83" t="s">
+      <c r="J35" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="K35" s="89"/>
+      <c r="K35" s="68"/>
     </row>
     <row r="36" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
@@ -4028,10 +4031,10 @@
       <c r="G39" s="13"/>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="83" t="s">
+      <c r="J39" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="K39" s="89"/>
+      <c r="K39" s="68"/>
     </row>
     <row r="40" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
@@ -4051,17 +4054,17 @@
       <c r="B41" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
       <c r="G41" s="13"/>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K41" s="89"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
@@ -4084,7 +4087,7 @@
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
-      <c r="F43" s="74"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="13"/>
       <c r="H43" s="28" t="s">
         <v>36</v>
@@ -4116,10 +4119,10 @@
       <c r="G45" s="13"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="83" t="s">
+      <c r="J45" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="K45" s="89"/>
+      <c r="K45" s="68"/>
     </row>
     <row r="46" spans="1:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
@@ -4146,23 +4149,23 @@
       <c r="G47" s="13"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="83" t="s">
+      <c r="J47" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="K47" s="89"/>
+      <c r="K47" s="68"/>
     </row>
     <row r="48" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="75"/>
+      <c r="D48" s="86"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="34"/>
       <c r="G48" s="13"/>
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="90"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="64"/>
     </row>
     <row r="49" spans="1:12" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
@@ -4172,27 +4175,27 @@
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="60" t="s">
+      <c r="H49" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="61"/>
-      <c r="J49" s="61"/>
-      <c r="K49" s="62"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="75"/>
     </row>
     <row r="50" spans="1:12" s="15" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="69"/>
-      <c r="K50" s="70"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="82"/>
+      <c r="G50" s="82"/>
+      <c r="H50" s="82"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="83"/>
     </row>
     <row r="51" spans="1:12" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
@@ -4285,8 +4288,8 @@
       <c r="G56" s="12"/>
       <c r="H56" s="9"/>
       <c r="I56" s="12"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="81"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="66"/>
     </row>
     <row r="57" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
@@ -4300,8 +4303,8 @@
       <c r="G57" s="12"/>
       <c r="H57" s="9"/>
       <c r="I57" s="12"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="92"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="62"/>
       <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4316,17 +4319,17 @@
       <c r="G58" s="12"/>
       <c r="H58" s="9"/>
       <c r="I58" s="12"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="92"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="62"/>
       <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
+      <c r="D59" s="88"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="88"/>
       <c r="G59" s="12"/>
       <c r="H59" s="42"/>
       <c r="I59" s="31"/>
@@ -4338,18 +4341,18 @@
       <c r="A60" s="44"/>
       <c r="B60" s="45"/>
       <c r="C60" s="45"/>
-      <c r="D60" s="59" t="s">
+      <c r="D60" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
       <c r="G60" s="45"/>
-      <c r="H60" s="60" t="s">
+      <c r="H60" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="62"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="75"/>
       <c r="L60" s="46"/>
     </row>
     <row r="61" spans="1:12" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -4382,14 +4385,14 @@
       <c r="G62" s="12"/>
       <c r="H62" s="12"/>
       <c r="I62" s="35"/>
-      <c r="J62" s="82"/>
-      <c r="K62" s="90"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="64"/>
       <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="78"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="12" t="s">
         <v>56</v>
       </c>
@@ -4398,14 +4401,14 @@
       <c r="G63" s="12"/>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="86"/>
-      <c r="K63" s="92"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="62"/>
       <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="78"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="12" t="s">
         <v>58</v>
       </c>
@@ -4414,40 +4417,40 @@
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
-      <c r="J64" s="86"/>
-      <c r="K64" s="92"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="62"/>
       <c r="L64" s="41"/>
     </row>
     <row r="65" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="55"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="93"/>
       <c r="L65" s="41"/>
     </row>
     <row r="66" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56" t="s">
+      <c r="A66" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="57"/>
-      <c r="G66" s="57"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="57"/>
-      <c r="K66" s="58"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="95"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="95"/>
+      <c r="G66" s="95"/>
+      <c r="H66" s="95"/>
+      <c r="I66" s="95"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="96"/>
       <c r="L66" s="41"/>
     </row>
     <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -4464,77 +4467,85 @@
       <c r="K67" s="48"/>
     </row>
     <row r="68" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
     </row>
     <row r="69" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
+      <c r="A69" s="90"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="90"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
     </row>
     <row r="70" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
+      <c r="A70" s="90"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="90"/>
+      <c r="I70" s="90"/>
+      <c r="J70" s="90"/>
+      <c r="K70" s="90"/>
     </row>
     <row r="71" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
+      <c r="A71" s="90"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
+      <c r="E71" s="90"/>
+      <c r="F71" s="90"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
+      <c r="I71" s="90"/>
+      <c r="J71" s="90"/>
+      <c r="K71" s="90"/>
     </row>
     <row r="72" spans="1:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
+      <c r="A72" s="90"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="90"/>
+      <c r="E72" s="90"/>
+      <c r="F72" s="90"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="90"/>
+      <c r="I72" s="90"/>
+      <c r="J72" s="90"/>
+      <c r="K72" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A72:K72"/>
+    <mergeCell ref="A65:K65"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A71:K71"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="J63:K63"/>
     <mergeCell ref="J64:K64"/>
     <mergeCell ref="J27:K27"/>
@@ -4546,32 +4557,24 @@
     <mergeCell ref="J35:K35"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="J29:K29"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J62:K62"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:K5"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="H49:K49"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="A72:K72"/>
-    <mergeCell ref="A65:K65"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A71:K71"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
